--- a/storage/gathern_detailed.xlsx
+++ b/storage/gathern_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,34 +461,34 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>TotalPrice</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Reviews</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Reviews</t>
+          <t>Beds</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Beds</t>
+          <t>Baths</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Baths</t>
+          <t>Amenities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/131521/unit/184728?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/131521/unit/184728?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,32 +511,36 @@
           <t>399</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Main living room accommodates 4 person, Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Bathrobe, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/142772/unit/200241?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/142772/unit/200241?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -559,32 +563,36 @@
           <t>299</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>One</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Freezer, Refrigerator, Microwave, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/136263/unit/191093?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/136263/unit/191093?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,32 +615,36 @@
           <t>3,999.50</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Main living room accommodates 1 person, Internet, Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Boiler, Coffee machine, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/138868/unit/194716?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/138868/unit/194716?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -655,32 +667,36 @@
           <t>303.05</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>TV, Self Check-in, Bathrooms 1, Tissues, Soap, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/143169/unit/200744?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/143169/unit/200744?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -698,33 +714,41 @@
           <t>40</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Two</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/142773/unit/200242?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/142773/unit/200242?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -747,32 +771,36 @@
           <t>299</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>One</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Freezer, Refrigerator, Microwave, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/139998/unit/196238?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/139998/unit/196238?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -795,32 +823,36 @@
           <t>420</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Bathtub, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Microwave, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/140005/unit/196245?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/140005/unit/196245?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -843,32 +875,36 @@
           <t>336</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/129699/unit/182270?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/129699/unit/182270?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -891,32 +927,36 @@
           <t>250</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Main living room accommodates 2 person, Internet, Additional lights, Car entrance, Security office, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/133701/unit/195935?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/133701/unit/195935?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -939,32 +979,36 @@
           <t>294.50</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/140017/unit/196259?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/140017/unit/196259?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -987,32 +1031,36 @@
           <t>300</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
+          <t>Bathrooms 1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Bathrooms 1</t>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Microwave, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://gathern.co/en/view/140014/unit/196256?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3</t>
+          <t>https://gathern.co/en/view/140014/unit/196256?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1035,25 +1083,649 @@
           <t>300</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/131521/unit/184728?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Apartment with Self-Check in</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Riyadh - Ghirnatah Dist.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Main living room accommodates 4 person, Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Bathrobe, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/142772/unit/200241?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Studio with a Side Seating</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Yarmuk Dist.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Freezer, Refrigerator, Microwave, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/136263/unit/191093?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Studio with safe-check in</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Riyadh - Qurtubah Dist.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,999.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Main living room accommodates 1 person, Internet, Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Boiler, Coffee machine, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/138868/unit/194716?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Studio with a master bed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Yarmuk Dist.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>303.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TV, Self Check-in, Bathrooms 1, Tissues, Soap, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/143169/unit/200744?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Studio with Self-Check in</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Yarmuk Dist.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/142773/unit/200242?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Studio With Master Bed</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Yarmuk Dist.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Freezer, Refrigerator, Microwave, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/139998/unit/196238?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Studio with Master Bed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Malqa Dist.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Bathtub, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, Microwave, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/140005/unit/196245?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Studio with Master Bed</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Malqa Dist.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1 Bedrooms (1 Master Bed)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Bathrooms 1</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/129699/unit/182270?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Studio with a master bed</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Malqa Dist.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Main living room accommodates 2 person, Internet, Additional lights, Car entrance, Security office, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/133701/unit/195935?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Studio with Master Bed</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Yarmuk Dist.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>294.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Additional lights, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Shower, Refrigerator, Boiler, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/140017/unit/196259?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Studio with Master Bed</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Malqa Dist.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Microwave, 1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://gathern.co/en/view/140014/unit/196256?check_in=2025-07-25&amp;check_out=2025-07-26&amp;chalet_cats=6%2C7%2C8%2C9&amp;city=3&amp;page=2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Studio with Master Bed</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Riyadh - Al Malqa Dist.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1 Bedrooms (1 Master Bed)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Bathrooms 1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Internet, TV, Lifts - elevator, Self Check-in, Bathrooms 1, Tissues, Soap, Shampoo, Slippers, Shower, Refrigerator, 1 Bedrooms (1 Master Bed)</t>
         </is>
       </c>
     </row>
